--- a/biology/Mycologie/Pertusaria_pertusa/Pertusaria_pertusa.xlsx
+++ b/biology/Mycologie/Pertusaria_pertusa/Pertusaria_pertusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pertusaria pertusa est une espèce de champignons ascomycètes (lichens encroûtants) de la famille des Pertusariaceae.
 </t>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Formes
-Selon MycoBank                                            (18 janvier 2023)[1] :
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Pertusaria pertusa f. aggregata (Erichsen) Erichsen, 1935
 Pertusaria pertusa f. conglomerans Erichsen, 1937
 Pertusaria pertusa f. nodulosa Erichsen, 1935
 Pertusaria pertusa f. pertusa
 Pertusaria pertusa f. pisiformis Servít, 1929
 Pertusaria pertusa f. sordidoviridis Erichsen, 1936
-Pertusaria pertusa f. viarum Erichsen, 1935
-Variétés
-Selon MycoBank                                            (18 janvier 2023)[1] :
+Pertusaria pertusa f. viarum Erichsen, 1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pertusaria_pertusa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pertusaria_pertusa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Pertusaria pertusa var. albida (H. Olivier) Oxner, 1968
 Pertusaria pertusa var. debaryana (Hepp) Erichsen, 1935
 Pertusaria pertusa var. decorticata Erichsen, 1935
@@ -539,35 +590,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pertusaria_pertusa</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pertusaria_pertusa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Pertusaria pertusa (L.) Tuck., 1845[1].
-L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen pertusus L., 1767[1].
-Pertusaria pertusa a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Pertusaria pertusa (L.) Tuck., 1845.
+L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen pertusus L., 1767.
+Pertusaria pertusa a pour synonymes :
 Lichen pertusus L., 1767
 Pertusaria communis DC., 1805
 Porina communis (DC.) Chevall., 1826
@@ -580,31 +633,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pertusaria_pertusa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pertusaria_pertusa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>E. Tuckerman, An Enumeration of North American Lichens with a preliminary view of the structure and general history of these plants, and of the Friesian system, 1845, p. 1-59</t>
         </is>
